--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>597816.5855364976</v>
+        <v>549339.964723648</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12521087.91900264</v>
+        <v>12426458.88989895</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7541126.413445119</v>
+        <v>6381813.161497339</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9015593.074605985</v>
+        <v>9588764.761935661</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663196</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>232.2791855053264</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368145</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>153.8072380324128</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663196</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.177699712274381</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663196</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663196</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>165.1725371760942</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>185.6961891396998</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663196</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663196</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>5.568877204556955</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>248.7240177500974</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5255871663197</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>165.1725371760943</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,16 +977,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.7242134093972</v>
       </c>
       <c r="V6" t="n">
-        <v>186.1649406925468</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>187.5255871663197</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>187.5255871663197</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>35.34222668627829</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>29.00708539155811</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845843</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>187.5255871663197</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>187.5255871663197</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>239.8079481415045</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>239.8079481415045</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>199.0229131323836</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>211.2228407230371</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>239.8079481415045</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>84.73568467803638</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>29.58092847484882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176904</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>85.36610313819104</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>17.7766226807211</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>58.92805047992017</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>90.41948680756526</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>62.09581973348902</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>247.8740138552089</v>
       </c>
       <c r="Y14" t="n">
-        <v>148.5889589693326</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>210.1089145855743</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>192.1675620474797</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>145.2219459239358</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>265.3349637476814</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.6898441249708</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>94.32202086807149</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>112.5325445690871</v>
+        <v>204.5947623500352</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>93.34984542792056</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,7 +2256,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>13.02719212039676</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,13 +2326,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>229.7965692041371</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>8.295721849961488</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>88.23797643592248</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>131.0573912450687</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>56.91547624318606</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>138.6444210303391</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.1096626559152</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2797,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>177.6065387483027</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>119.3517065765352</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>186.2120483577856</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>148.8823210979751</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>22.7931936102642</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>287.8356049834716</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3204,10 +3204,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>150.2062474346973</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>34.98723076369722</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3271,22 +3271,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>313.073874897297</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>3.222651934127061</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.75769145492396</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>216.2486892180379</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>293.9779404656203</v>
       </c>
       <c r="Y38" t="n">
-        <v>332.7951554392618</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>7.60108101544749</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3720,13 +3720,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>205.526188887224</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.6065387483023</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>8.87089910508379</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>40.31924309660595</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>51.40234901104146</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>207.7497004594811</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,13 +3985,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>251.2852794514161</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>30.77353657221289</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>120.6347889227738</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330557</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330557</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330557</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330557</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330557</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330557</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330557</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123825</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985575</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652786</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201457</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201457</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201457</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201457</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>583.2614020227591</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>583.2614020227591</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>393.8416170062745</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>204.4218319897901</v>
+        <v>788.4778634388467</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330557</v>
+        <v>197.7498363603125</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330557</v>
+        <v>23.29680707918553</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330557</v>
+        <v>23.29680707918553</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330557</v>
+        <v>23.29680707918553</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330557</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330557</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330557</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330557</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024202</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>338.769091114024</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546593</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>649.210157847634</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652786</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652786</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652786</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652786</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="U3" t="n">
-        <v>560.682563648794</v>
+        <v>659.7474918534681</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323095</v>
+        <v>659.7474918534681</v>
       </c>
       <c r="W3" t="n">
-        <v>181.842993615825</v>
+        <v>405.5101351252665</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330557</v>
+        <v>405.5101351252665</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330557</v>
+        <v>197.7498363603125</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.6908704103906</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="C4" t="n">
-        <v>183.6908704103906</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="D4" t="n">
-        <v>183.6908704103906</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E4" t="n">
-        <v>183.6908704103906</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F4" t="n">
-        <v>183.6908704103906</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330557</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330557</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330557</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330557</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330557</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884405</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>373.539956383097</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242508</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608009</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652786</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652786</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652786</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652786</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>562.5304404433596</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="U4" t="n">
-        <v>373.1106554268751</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="V4" t="n">
-        <v>373.1106554268751</v>
+        <v>308.3243389909743</v>
       </c>
       <c r="W4" t="n">
-        <v>183.6908704103906</v>
+        <v>41.94668242379629</v>
       </c>
       <c r="X4" t="n">
-        <v>183.6908704103906</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="Y4" t="n">
-        <v>183.6908704103906</v>
+        <v>36.32155393434482</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>560.6825636487943</v>
+        <v>1121.622528190048</v>
       </c>
       <c r="C5" t="n">
-        <v>371.2627786323097</v>
+        <v>1121.622528190048</v>
       </c>
       <c r="D5" t="n">
-        <v>371.2627786323097</v>
+        <v>1121.622528190048</v>
       </c>
       <c r="E5" t="n">
-        <v>371.2627786323097</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F5" t="n">
-        <v>181.8429936158251</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330558</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330558</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330558</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678535</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159059007</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L5" t="n">
-        <v>191.874309407919</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644759</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>509.495204112383</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
-        <v>649.484525998558</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>734.461172602026</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652789</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652789</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652789</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652789</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1023486652789</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="V5" t="n">
-        <v>750.1023486652789</v>
+        <v>1495.088286451128</v>
       </c>
       <c r="W5" t="n">
-        <v>750.1023486652789</v>
+        <v>1495.088286451128</v>
       </c>
       <c r="X5" t="n">
-        <v>750.1023486652789</v>
+        <v>1121.622528190048</v>
       </c>
       <c r="Y5" t="n">
-        <v>750.1023486652789</v>
+        <v>1121.622528190048</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.00204697330558</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C6" t="n">
-        <v>15.00204697330558</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D6" t="n">
-        <v>15.00204697330558</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E6" t="n">
-        <v>15.00204697330558</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F6" t="n">
-        <v>15.00204697330558</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330558</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330558</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330558</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330558</v>
+        <v>214.3836900926279</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024242</v>
+        <v>633.2955414799095</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>890.846677039897</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140243</v>
+        <v>1210.753572508406</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546598</v>
+        <v>1553.536096503038</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476343</v>
+        <v>1844.895342757604</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017056</v>
+        <v>2074.985828260213</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652789</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652789</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652789</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652789</v>
+        <v>1973.749505378629</v>
       </c>
       <c r="U6" t="n">
-        <v>750.1023486652789</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V6" t="n">
-        <v>562.0569540263427</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W6" t="n">
-        <v>372.6371690098582</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X6" t="n">
-        <v>183.2173839933736</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y6" t="n">
-        <v>183.2173839933736</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.30213322740468</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="C7" t="n">
-        <v>44.30213322740468</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="D7" t="n">
-        <v>44.30213322740468</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="E7" t="n">
-        <v>44.30213322740468</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F7" t="n">
-        <v>44.30213322740468</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>44.30213322740468</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>44.30213322740468</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330558</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330558</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330558</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L7" t="n">
-        <v>187.8896250884405</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M7" t="n">
-        <v>373.539956383097</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N7" t="n">
-        <v>559.1902876777535</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O7" t="n">
-        <v>721.9284911143036</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P7" t="n">
-        <v>750.1023486652789</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q7" t="n">
-        <v>746.7254979846265</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R7" t="n">
-        <v>612.5614882768584</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S7" t="n">
-        <v>423.1417032603738</v>
+        <v>1287.175893077873</v>
       </c>
       <c r="T7" t="n">
-        <v>233.7219182438893</v>
+        <v>1287.175893077873</v>
       </c>
       <c r="U7" t="n">
-        <v>44.30213322740468</v>
+        <v>998.0495720518968</v>
       </c>
       <c r="V7" t="n">
-        <v>44.30213322740468</v>
+        <v>743.36508384601</v>
       </c>
       <c r="W7" t="n">
-        <v>44.30213322740468</v>
+        <v>453.9479138090493</v>
       </c>
       <c r="X7" t="n">
-        <v>44.30213322740468</v>
+        <v>225.958362911032</v>
       </c>
       <c r="Y7" t="n">
-        <v>44.30213322740468</v>
+        <v>225.958362911032</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>745.8753877952736</v>
+        <v>1407.319888150872</v>
       </c>
       <c r="C8" t="n">
-        <v>503.6451371472892</v>
+        <v>1407.319888150872</v>
       </c>
       <c r="D8" t="n">
-        <v>261.4148864993048</v>
+        <v>1049.054189544121</v>
       </c>
       <c r="E8" t="n">
-        <v>19.18463585132036</v>
+        <v>663.265936945877</v>
       </c>
       <c r="F8" t="n">
-        <v>19.18463585132036</v>
+        <v>252.2800321562694</v>
       </c>
       <c r="G8" t="n">
-        <v>19.18463585132036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>19.18463585132036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>19.18463585132036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>40.41888584470348</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>122.9820404192956</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>262.3106962605484</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>449.0101090859557</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>643.3443219779377</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>813.5133472948971</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>924.2476725444232</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>959.231792566018</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>959.2317925660182</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>959.2317925660182</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>959.2317925660182</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>959.2317925660182</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>959.2317925660182</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W8" t="n">
-        <v>959.2317925660182</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X8" t="n">
-        <v>745.8753877952736</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="Y8" t="n">
-        <v>745.8753877952736</v>
+        <v>1793.919728214993</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>168.1190455125716</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>168.1190455125716</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>19.18463585132036</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>19.18463585132036</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>19.18463585132036</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>19.18463585132036</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>19.18463585132036</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>19.18463585132036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>85.30141548166266</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>152.9092351450195</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>290.1388331607133</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>469.6361695153179</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>668.2929111679823</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>827.8052238367427</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>936.4948513640413</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>959.2317925660182</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>959.2317925660182</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>959.2317925660182</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>959.2317925660182</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>731.093005077184</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>495.9408968454413</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>253.7106461974569</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>168.1190455125716</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>168.1190455125716</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>959.2317925660182</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>929.3520668338476</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>779.2354274215119</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>631.3223338391188</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>484.4323863412084</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>315.8255413365918</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>161.5708982363568</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>37.05922361068303</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>19.18463585132036</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>63.76336012264349</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>248.5963550234617</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>453.8659557426996</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>659.6893205788037</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>833.7842159674026</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>959.2317925660182</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>959.2317925660182</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>959.2317925660182</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>959.2317925660182</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>959.2317925660182</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>959.2317925660182</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>959.2317925660182</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>959.2317925660182</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>959.2317925660182</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.2317925660182</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2065.110222835252</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.14770589484</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D11" t="n">
-        <v>1337.882007288089</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E11" t="n">
-        <v>952.0937546898451</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F11" t="n">
-        <v>541.1078499002376</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>126.0353997452341</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.5121164321834</v>
@@ -5068,25 +5068,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136265</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W11" t="n">
-        <v>3215.315153136265</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X11" t="n">
-        <v>2841.849394875185</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y11" t="n">
-        <v>2451.710062899373</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="12">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1007.446783179745</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="C13" t="n">
-        <v>838.5106002518377</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="D13" t="n">
-        <v>688.3939608395019</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E13" t="n">
-        <v>540.4808672571088</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
         <v>66.5121164321834</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088492</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088492</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W13" t="n">
-        <v>1637.877378051532</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X13" t="n">
-        <v>1409.887827153514</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y13" t="n">
-        <v>1189.095248009984</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1548.419770374778</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="C14" t="n">
-        <v>1548.419770374778</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D14" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5293,37 +5293,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450752</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919558</v>
+        <v>2027.575342023478</v>
       </c>
       <c r="Y14" t="n">
-        <v>1548.419770374778</v>
+        <v>1637.436010047667</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>922.6774975139006</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.6347488791189</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V16" t="n">
-        <v>922.6774975139006</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W16" t="n">
-        <v>922.6774975139006</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X16" t="n">
-        <v>922.6774975139006</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y16" t="n">
-        <v>922.6774975139006</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796256</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C17" t="n">
-        <v>775.0816216130238</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D17" t="n">
-        <v>775.0816216130238</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E17" t="n">
-        <v>775.0816216130238</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5539,28 +5539,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919559</v>
+        <v>2009.938018899768</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943747</v>
+        <v>1619.798686923957</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218342</v>
+        <v>775.6427484063371</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218342</v>
+        <v>606.7065654784302</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>456.5899260660944</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>308.6768324837013</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>161.786884985791</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,10 +5694,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
         <v>1735.608663915319</v>
@@ -5706,19 +5706,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610488</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046014</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W19" t="n">
-        <v>680.6375233676408</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X19" t="n">
-        <v>452.6479724696235</v>
+        <v>996.4353275498672</v>
       </c>
       <c r="Y19" t="n">
-        <v>231.8553933260934</v>
+        <v>775.6427484063371</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1274.53911114974</v>
+        <v>1853.982617026597</v>
       </c>
       <c r="C20" t="n">
-        <v>1274.53911114974</v>
+        <v>1485.020100086185</v>
       </c>
       <c r="D20" t="n">
-        <v>1160.869874211268</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>775.0816216130238</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5776,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W20" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X20" t="n">
-        <v>2051.278283189673</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y20" t="n">
-        <v>1661.138951213862</v>
+        <v>2240.582457090719</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.0213023927779</v>
@@ -5828,31 +5828,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>994.2880032601528</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C22" t="n">
-        <v>825.3518203322459</v>
+        <v>475.3976737148905</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2351809199101</v>
+        <v>475.3976737148905</v>
       </c>
       <c r="E22" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G22" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5940,22 +5940,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U22" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V22" t="n">
-        <v>1914.135768168901</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W22" t="n">
-        <v>1624.71859813194</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X22" t="n">
-        <v>1396.729047233923</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y22" t="n">
-        <v>1175.936468090393</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1822.632236038043</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C23" t="n">
-        <v>1453.669719097631</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D23" t="n">
-        <v>1095.404020490881</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E23" t="n">
-        <v>709.6157678926365</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>298.629863103029</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6001,40 +6001,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.605821609171</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>2972.837166339056</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X23" t="n">
-        <v>2599.371408077976</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y23" t="n">
-        <v>2209.232076102165</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I24" t="n">
         <v>66.5121164321834</v>
@@ -6074,7 +6074,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6086,34 +6086,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>302.5313330572882</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>302.5313330572882</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>155.6413855593778</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1837.464090846021</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>1837.464090846021</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.044275313594</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.262145272047</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1590.514489367197</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C26" t="n">
-        <v>1221.551972426786</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D26" t="n">
-        <v>863.2862738200351</v>
+        <v>584.6815723082748</v>
       </c>
       <c r="E26" t="n">
-        <v>477.498021221791</v>
+        <v>198.8933197100305</v>
       </c>
       <c r="F26" t="n">
-        <v>66.5121164321834</v>
+        <v>198.8933197100305</v>
       </c>
       <c r="G26" t="n">
         <v>66.5121164321834</v>
@@ -6226,10 +6226,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6265,13 +6265,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2367.25366140713</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
-        <v>2367.25366140713</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y26" t="n">
-        <v>1977.114329431319</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>994.2880032601528</v>
+        <v>820.4128495803448</v>
       </c>
       <c r="C28" t="n">
-        <v>825.3518203322459</v>
+        <v>651.4766666524379</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2351809199101</v>
+        <v>501.3600272401021</v>
       </c>
       <c r="E28" t="n">
-        <v>527.322087337517</v>
+        <v>353.446933657709</v>
       </c>
       <c r="F28" t="n">
-        <v>380.4321398396066</v>
+        <v>206.5569861597986</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
         <v>66.5121164321834</v>
@@ -6414,22 +6414,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U28" t="n">
-        <v>1638.191681214136</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V28" t="n">
-        <v>1638.191681214136</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W28" t="n">
-        <v>1348.774511177176</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="X28" t="n">
-        <v>1348.774511177176</v>
+        <v>1222.853893554115</v>
       </c>
       <c r="Y28" t="n">
-        <v>1175.936468090393</v>
+        <v>1002.061314410584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1767.878520285688</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C29" t="n">
-        <v>1398.916003345276</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D29" t="n">
-        <v>1398.916003345276</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E29" t="n">
-        <v>1013.127750747032</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F29" t="n">
-        <v>602.1418459574245</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G29" t="n">
-        <v>187.069395802421</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6475,16 +6475,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.60582160917</v>
@@ -6493,22 +6493,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>2158.0178522615</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1767.878520285688</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>235.4482993600903</v>
+        <v>530.2513404403937</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218339</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218339</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
         <v>315.6219318279954</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1739.201569949315</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1517.434954518842</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1228.332087644485</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V31" t="n">
-        <v>973.6475994385983</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W31" t="n">
-        <v>684.2304294016377</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X31" t="n">
-        <v>456.2408785036204</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y31" t="n">
-        <v>235.4482993600903</v>
+        <v>530.2513404403937</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1689.318139675982</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C32" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D32" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
@@ -6703,7 +6703,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6727,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3192.291725247109</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>3192.291725247109</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V32" t="n">
-        <v>3192.291725247109</v>
+        <v>2781.332309546166</v>
       </c>
       <c r="W32" t="n">
-        <v>2839.523069976995</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="X32" t="n">
-        <v>2466.057311715915</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y32" t="n">
-        <v>2075.917979740103</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2489.924953962484</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C34" t="n">
-        <v>2320.988771034577</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.872131622242</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.959038039849</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.069090541939</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916658</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134515</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193524</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>2892.365997936254</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>2892.365997936254</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="V34" t="n">
-        <v>2892.365997936254</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W34" t="n">
-        <v>2892.365997936254</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X34" t="n">
-        <v>2892.365997936254</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y34" t="n">
-        <v>2671.573418792724</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1506.36381994936</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C35" t="n">
-        <v>1137.401303008948</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D35" t="n">
-        <v>1137.401303008948</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E35" t="n">
-        <v>1137.401303008948</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3212.059949162401</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520487</v>
+        <v>2958.529472436237</v>
       </c>
       <c r="V35" t="n">
-        <v>3009.337405520487</v>
+        <v>2627.466585092666</v>
       </c>
       <c r="W35" t="n">
-        <v>2656.568750250373</v>
+        <v>2274.697929822552</v>
       </c>
       <c r="X35" t="n">
-        <v>2283.102991989293</v>
+        <v>2274.697929822552</v>
       </c>
       <c r="Y35" t="n">
-        <v>1892.963660013481</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1464.823389952861</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C37" t="n">
-        <v>1464.823389952861</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D37" t="n">
-        <v>1464.823389952861</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E37" t="n">
-        <v>1464.823389952861</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.823389952861</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193524</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.32286476305</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>2533.219997888694</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>2278.535509682807</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>1989.118339645846</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>1761.128788747829</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1540.336209604299</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1678.62132134232</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C38" t="n">
-        <v>1678.62132134232</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.35562273557</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
         <v>66.5121164321834</v>
@@ -7186,13 +7186,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7201,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V38" t="n">
-        <v>2741.012457539436</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W38" t="n">
-        <v>2388.243802269321</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X38" t="n">
-        <v>2014.778044008242</v>
+        <v>2664.837261798364</v>
       </c>
       <c r="Y38" t="n">
-        <v>1678.62132134232</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
         <v>618.1564155387305</v>
@@ -7241,46 +7241,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297192</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1633.759572880768</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C40" t="n">
-        <v>1464.823389952861</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D40" t="n">
-        <v>1464.823389952861</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.823389952861</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.823389952861</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3044.089480193524</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>2822.32286476305</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>2533.219997888694</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>2325.617786891498</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>2036.200616854537</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X40" t="n">
-        <v>2036.200616854537</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y40" t="n">
-        <v>1815.408037711007</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="41">
@@ -7408,31 +7408,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.60582160917</v>
@@ -7444,19 +7444,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450752</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180638</v>
+        <v>2669.314014030367</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.509627919558</v>
+        <v>2295.848255769287</v>
       </c>
       <c r="Y41" t="n">
-        <v>1698.509627919558</v>
+        <v>1905.708923793476</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
         <v>2407.411984886741</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>593.9942835760969</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C43" t="n">
-        <v>425.05810064819</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>274.9414612358543</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574644</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
         <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1875.372983430875</v>
       </c>
       <c r="U43" t="n">
-        <v>1513.842048484845</v>
+        <v>1586.270116556519</v>
       </c>
       <c r="V43" t="n">
-        <v>1513.842048484845</v>
+        <v>1586.270116556519</v>
       </c>
       <c r="W43" t="n">
-        <v>1224.424878447884</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X43" t="n">
-        <v>996.4353275498668</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y43" t="n">
-        <v>775.6427484063366</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1844.338003964587</v>
+        <v>1208.812782134349</v>
       </c>
       <c r="C44" t="n">
-        <v>1475.375487024176</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D44" t="n">
-        <v>1117.109788417425</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E44" t="n">
-        <v>731.321535819181</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F44" t="n">
-        <v>320.3356310295734</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
         <v>66.51211643218343</v>
@@ -7657,13 +7657,13 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7678,22 +7678,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V44" t="n">
-        <v>2994.542934265601</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W44" t="n">
-        <v>2994.542934265601</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X44" t="n">
-        <v>2621.077176004521</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y44" t="n">
-        <v>2230.937844028709</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="45">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1999.155758988782</v>
+        <v>560.1023745137405</v>
       </c>
       <c r="C46" t="n">
-        <v>1830.219576060875</v>
+        <v>560.1023745137405</v>
       </c>
       <c r="D46" t="n">
-        <v>1830.219576060875</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E46" t="n">
-        <v>1830.219576060875</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>1830.219576060875</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>1708.366253916659</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>3235.775364366699</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>3014.008748936225</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>2724.905882061869</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V46" t="n">
-        <v>2470.221393855982</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W46" t="n">
-        <v>2180.804223819021</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X46" t="n">
-        <v>2180.804223819021</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="Y46" t="n">
-        <v>2180.804223819021</v>
+        <v>741.7508393439803</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8139,16 +8139,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457082</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>75.41988959484625</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265846</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>15.73946458758471</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402859</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>171.4142040457083</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>163.8604018711116</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>46.56605103777605</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.01783107116312</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>49.7041650069893</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
@@ -8631,7 +8631,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.89011047839809</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971609</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>149.6511845669353</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>173.9450204377221</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121494</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897339</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22637,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>142.8915126811095</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>48.7788117555066</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714242</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377129</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310563</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459997</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>40.60044802738324</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553089</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,28 +22749,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845843</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>38.02348435040031</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713064</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027136</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>220.1407781844802</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195.2082544971609</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>177.7473046046878</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>133.2063523221644</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753917</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>247.9252960539637</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199748</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368145</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900532</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22865,25 +22865,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>48.7788117555066</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.91122581714242</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>0.09636055867139248</v>
       </c>
       <c r="V6" t="n">
-        <v>46.63564645687848</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>64.16939599459988</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>18.24739803715775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>144.489753495659</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22953,19 +22953,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>96.70013437930858</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43375830553089</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>19.25466862917651</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>36.19408632378037</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>98.73949432713056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>125.464943629503</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>114.8750934791784</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>142.1224219307572</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>212.5247896405703</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938904</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>158.5082599554319</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664346</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>45.4458084395867</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183515</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,13 +23162,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>11.88703501941507</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>121.0373005254411</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>137.665892623779</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -23193,13 +23193,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001187</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>201.1568951984</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>347.4962690902864</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>235.6797139074003</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>58.19598621064709</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>83.32522828944224</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>121.8570868232601</v>
       </c>
       <c r="Y14" t="n">
-        <v>237.648979686721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>42.02872873825373</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>94.35543628911128</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>220.0509458470718</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>104.3961369307876</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.14213605696645</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>71.70378739095673</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>242.1504970515958</v>
+        <v>150.0882792706478</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>53.08411721864861</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>239.1104512034312</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24214,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>181.1251564493163</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -24262,10 +24262,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>377.9422168060921</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>77.78783182310575</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>279.8643344083848</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>292.325492474227</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>27.38138722868916</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24654,22 +24654,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.47499069617959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>229.2695069934088</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>175.2560578107853</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>3.556976973656305</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>69.70233225411974</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24937,7 +24937,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>181.1247765293559</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>39.91665348666334</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>69.34270184147189</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>251.2246074419157</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>93.80217084441443</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>200.6953182054931</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>2.335964134056923</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>75.75316021284874</v>
       </c>
       <c r="Y38" t="n">
-        <v>53.44278321679178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>137.8199670074838</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>46.61145443660405</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>205.1273029151783</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>340.3700696123292</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>106.1147195499632</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>168.1466002651277</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>174.9841412039995</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>159.6364462020373</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25918,16 +25918,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>117.8419364459995</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>45.39101933625439</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>469902.7171790036</v>
+        <v>532640.5770708444</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>469902.7171790035</v>
+        <v>728034.344196957</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>513457.2361140675</v>
+        <v>797085.5717721587</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878081.8178860205</v>
+        <v>878081.8178860204</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878081.8178860204</v>
+        <v>878081.8178860205</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>878081.8178860204</v>
+        <v>878081.8178860205</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878081.8178860205</v>
+        <v>878081.8178860203</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>878081.8178860206</v>
+        <v>878081.8178860205</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878081.8178860203</v>
+        <v>878081.8178860205</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>878081.8178860203</v>
+        <v>878081.8178860204</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>878081.8178860204</v>
+        <v>878081.8178860205</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878081.8178860204</v>
+        <v>878081.8178860206</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>878081.8178860202</v>
+        <v>878081.8178860203</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>878081.8178860204</v>
+        <v>878081.8178860205</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171419.5356187815</v>
+        <v>193768.2521372568</v>
       </c>
       <c r="C2" t="n">
-        <v>171419.5356187815</v>
+        <v>265569.8802231801</v>
       </c>
       <c r="D2" t="n">
-        <v>186902.5922223889</v>
+        <v>290673.0489695933</v>
       </c>
       <c r="E2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="F2" t="n">
-        <v>323947.2440223743</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="G2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="H2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="I2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="J2" t="n">
-        <v>323947.2440223743</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="K2" t="n">
         <v>323947.2440223744</v>
@@ -26346,16 +26346,16 @@
         <v>323947.2440223744</v>
       </c>
       <c r="M2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="N2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="O2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223742</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>308174.1417414033</v>
       </c>
       <c r="D3" t="n">
-        <v>54784.37480766096</v>
+        <v>99404.18284596092</v>
       </c>
       <c r="E3" t="n">
-        <v>575366.1973577669</v>
+        <v>182072.9798171905</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285445</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>71651.52831447152</v>
       </c>
       <c r="L3" t="n">
-        <v>13232.19502157053</v>
+        <v>24921.83922824956</v>
       </c>
       <c r="M3" t="n">
-        <v>147427.4683834174</v>
+        <v>47552.26579341491</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.588249117252417e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9939.208351946796</v>
+        <v>12754.4749088174</v>
       </c>
       <c r="C4" t="n">
-        <v>9939.2083519468</v>
+        <v>15634.16823746789</v>
       </c>
       <c r="D4" t="n">
-        <v>11979.2805006</v>
+        <v>17379.72927547097</v>
       </c>
       <c r="E4" t="n">
         <v>9160.459137079182</v>
       </c>
       <c r="F4" t="n">
-        <v>9160.459137079182</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="G4" t="n">
         <v>9160.459137079168</v>
       </c>
       <c r="H4" t="n">
-        <v>9160.459137079153</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="I4" t="n">
         <v>9160.459137079168</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161354</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161355</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>61145.70223437328</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
@@ -26502,13 +26502,13 @@
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-486862.3756656238</v>
+        <v>-572449.7217537714</v>
       </c>
       <c r="C6" t="n">
-        <v>104494.5268552212</v>
+        <v>-149986.1937411609</v>
       </c>
       <c r="D6" t="n">
-        <v>58993.23467975462</v>
+        <v>75723.90168642504</v>
       </c>
       <c r="E6" t="n">
-        <v>-334885.753033865</v>
+        <v>54931.27520865043</v>
       </c>
       <c r="F6" t="n">
-        <v>240480.4443239019</v>
+        <v>237004.255025841</v>
       </c>
       <c r="G6" t="n">
-        <v>240480.4443239019</v>
+        <v>237004.2550258408</v>
       </c>
       <c r="H6" t="n">
-        <v>240480.4443239017</v>
+        <v>237004.2550258409</v>
       </c>
       <c r="I6" t="n">
-        <v>240480.4443239022</v>
+        <v>237004.2550258409</v>
       </c>
       <c r="J6" t="n">
-        <v>191415.4995953573</v>
+        <v>168005.1006067268</v>
       </c>
       <c r="K6" t="n">
-        <v>240480.4443239019</v>
+        <v>165352.7267113694</v>
       </c>
       <c r="L6" t="n">
-        <v>227248.2493023314</v>
+        <v>212082.4157975913</v>
       </c>
       <c r="M6" t="n">
-        <v>93052.9759404846</v>
+        <v>189451.9892324261</v>
       </c>
       <c r="N6" t="n">
-        <v>240480.444323902</v>
+        <v>237004.2550258408</v>
       </c>
       <c r="O6" t="n">
-        <v>240480.4443239021</v>
+        <v>237004.2550258407</v>
       </c>
       <c r="P6" t="n">
-        <v>240480.4443239017</v>
+        <v>237004.255025841</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129042</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380646</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26755,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663197</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>239.8079481415045</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>239.6556507682058</v>
       </c>
       <c r="D3" t="n">
-        <v>45.00615942516038</v>
+        <v>80.35422757985498</v>
       </c>
       <c r="E3" t="n">
-        <v>496.3006002552335</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>278.401076724657</v>
       </c>
       <c r="D4" t="n">
-        <v>52.28236097518482</v>
+        <v>98.46987537387565</v>
       </c>
       <c r="E4" t="n">
-        <v>591.593507260788</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663195</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.401076724657</v>
       </c>
       <c r="L4" t="n">
-        <v>52.28236097518493</v>
+        <v>98.46987537387565</v>
       </c>
       <c r="M4" t="n">
-        <v>591.593507260788</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.401076724657</v>
       </c>
       <c r="L4" t="n">
-        <v>52.28236097518482</v>
+        <v>98.46987537387565</v>
       </c>
       <c r="M4" t="n">
-        <v>591.593507260788</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954483</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043114</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655542</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528637</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>347.950432967289</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470271</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470022</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622677</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244292</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151091</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974682</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619219</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924574</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.17639234280616</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575675</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590848</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340082</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621735</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405031</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975328</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829652</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292671</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>225.276266862887</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936714</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550071</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288819</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820366</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445813</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620011</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>29.7432551563916</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114189</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765068</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276989</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682165</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604413</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592432</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820537</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784854</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647907</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147602</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181392</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.385833569198248</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055156</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651554</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>202.49464189374</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779019</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712528</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074821</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>425.7102483359667</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822516</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426698</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457574</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411496</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810513</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916533</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840365</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182838</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847382</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070427</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>277.170135351282</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842452</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900651</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947075</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671572</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607456</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080798</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784624</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308313</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897144</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888313</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207009</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784128</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490373</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>124.338107579024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889952</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676925</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>163.770216344109</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714136</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>129.4361645720919</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104776</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937814</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>18.6507161368536</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522791</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880151</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663196</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>99.0850748900544</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>164.3820236732829</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538867938</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788315</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973018</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197544</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504113</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>141.403355440581</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915967</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065958</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>172.7419126813483</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781455</v>
+        <v>423.1432842295773</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606289</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755144</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996319</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848227</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>91.3018594485568</v>
+        <v>232.4146318208176</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764987</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L7" t="n">
-        <v>174.6339172880151</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M7" t="n">
-        <v>187.5255871663197</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N7" t="n">
-        <v>187.5255871663197</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O7" t="n">
-        <v>164.3820236732829</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P7" t="n">
-        <v>28.45844197068212</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.4487373670537</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292135</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012656</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802094</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393758</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605649</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874002</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130796</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>66.78462588923465</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>68.2907269326837</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>138.6157555714078</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622268</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>200.6633754067318</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>161.123548150263</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528269</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472408</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>45.0290144154779</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493114</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295331</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233376</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854533</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369854</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222388</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>549339.964723648</v>
+        <v>590949.7132884416</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12426458.88989895</v>
+        <v>12515698.8879799</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6381813.161497339</v>
+        <v>7504991.3612616</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9588764.761935661</v>
+        <v>9033329.15167401</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015062</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>232.2791855053264</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.177699712274381</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>138.2613113589521</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015062</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>5.568877204556955</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>248.7240177500974</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>6.396723986041094</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.40229248514463</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7242134093972</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.34222668627829</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>29.00708539155789</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>199.0229131323836</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>19.98946990210342</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>28.21934790826029</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>39.13625793941083</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>85.36610313819104</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,16 +1372,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>17.7766226807211</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>323.8490908462643</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>87.15549162507416</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>90.41948680756526</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>138.8992180371974</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>247.8740138552089</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>70.8276411951062</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>192.1675620474797</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>259.291273728825</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>265.3349637476814</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>94.32202086807149</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>134.0389899623034</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2086,13 +2086,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>204.5947623500352</v>
+        <v>48.76370230332348</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>93.34984542792056</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>161.701493309313</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>59.80165496339951</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.295721849961488</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>88.23797643592248</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>80.76468634461104</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>48.83141941632709</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>131.0573912450687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.6444210303391</v>
+        <v>70.70607604584285</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,16 +2797,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>177.6065387483027</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>84.2229096522898</v>
       </c>
     </row>
     <row r="30">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>20.18584184731641</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>148.8823210979751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>314.7279496501358</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>287.8356049834716</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.2668480797612918</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>34.98723076369722</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>289.4771678259129</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>3.222651934127061</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>15.07437110675892</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.2486892180379</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>77.4263979403563</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>293.9779404656203</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>7.60108101544749</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>79.54367350501126</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>273.8361873678168</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>8.87089910508379</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>51.40234901104146</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>10.20389322926571</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>207.7497004594811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,13 +3985,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>240.2451530332442</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>30.77353657221289</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>114.1627038799792</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.1002068716687</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716687</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D2" t="n">
-        <v>255.7225503044907</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E2" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F2" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388467</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>197.7498363603125</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>23.29680707918553</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>23.29680707918553</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>23.29680707918553</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166546</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166546</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="U3" t="n">
-        <v>659.7474918534681</v>
+        <v>393.841617006275</v>
       </c>
       <c r="V3" t="n">
-        <v>659.7474918534681</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W3" t="n">
-        <v>405.5101351252665</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X3" t="n">
-        <v>405.5101351252665</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y3" t="n">
-        <v>197.7498363603125</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434482</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434482</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434482</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640391</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U4" t="n">
-        <v>563.0088271968611</v>
+        <v>371.26277863231</v>
       </c>
       <c r="V4" t="n">
-        <v>308.3243389909743</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="W4" t="n">
-        <v>41.94668242379629</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="X4" t="n">
-        <v>36.32155393434482</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.32155393434482</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1121.622528190048</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="C5" t="n">
-        <v>1121.622528190048</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="D5" t="n">
-        <v>1121.622528190048</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="E5" t="n">
-        <v>870.3861466242934</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="F5" t="n">
-        <v>459.4002418346858</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G5" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H5" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232718</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711865</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.325171642784</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="T5" t="n">
-        <v>1826.151173794699</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="U5" t="n">
-        <v>1826.151173794699</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="V5" t="n">
-        <v>1495.088286451128</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="W5" t="n">
-        <v>1495.088286451128</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="X5" t="n">
-        <v>1121.622528190048</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="Y5" t="n">
-        <v>1121.622528190048</v>
+        <v>393.8416170062745</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>672.5286484590418</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C6" t="n">
-        <v>498.0756191779149</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D6" t="n">
-        <v>349.1412095166636</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E6" t="n">
-        <v>189.9037545112081</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F6" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G6" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H6" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J6" t="n">
-        <v>214.3836900926279</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K6" t="n">
-        <v>633.2955414799095</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L6" t="n">
-        <v>890.846677039897</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M6" t="n">
-        <v>1210.753572508406</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N6" t="n">
-        <v>1553.536096503038</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O6" t="n">
-        <v>1844.895342757604</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P6" t="n">
-        <v>2074.985828260213</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q6" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R6" t="n">
-        <v>2168.459826904653</v>
+        <v>734.5444774681628</v>
       </c>
       <c r="S6" t="n">
-        <v>2168.459826904653</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="T6" t="n">
-        <v>1973.749505378629</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="U6" t="n">
-        <v>1745.745249409541</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="V6" t="n">
-        <v>1510.593141177798</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="W6" t="n">
-        <v>1256.355784449597</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="X6" t="n">
-        <v>1048.504284244064</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y6" t="n">
-        <v>840.7439854791098</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2591440360034</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2591440360034</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2591440360034</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2591440360034</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J7" t="n">
-        <v>58.6963092017423</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K7" t="n">
-        <v>213.7203003246705</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L7" t="n">
-        <v>467.6240706728883</v>
+        <v>187.8896250884405</v>
       </c>
       <c r="M7" t="n">
-        <v>745.7191196640786</v>
+        <v>285.9838492295944</v>
       </c>
       <c r="N7" t="n">
-        <v>1022.636306385109</v>
+        <v>471.6341805242508</v>
       </c>
       <c r="O7" t="n">
-        <v>1262.397853152952</v>
+        <v>634.3723839608009</v>
       </c>
       <c r="P7" t="n">
-        <v>1444.034594271086</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q7" t="n">
-        <v>1486.355378693647</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="R7" t="n">
-        <v>1486.355378693647</v>
+        <v>612.561488276858</v>
       </c>
       <c r="S7" t="n">
-        <v>1287.175893077873</v>
+        <v>423.1417032603734</v>
       </c>
       <c r="T7" t="n">
-        <v>1287.175893077873</v>
+        <v>233.721918243889</v>
       </c>
       <c r="U7" t="n">
-        <v>998.0495720518968</v>
+        <v>233.721918243889</v>
       </c>
       <c r="V7" t="n">
-        <v>743.36508384601</v>
+        <v>233.721918243889</v>
       </c>
       <c r="W7" t="n">
-        <v>453.9479138090493</v>
+        <v>44.30213322740445</v>
       </c>
       <c r="X7" t="n">
-        <v>225.958362911032</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.958362911032</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1407.319888150872</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="C8" t="n">
-        <v>1407.319888150872</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D8" t="n">
-        <v>1049.054189544121</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E8" t="n">
-        <v>663.265936945877</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F8" t="n">
-        <v>252.2800321562694</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>1034.664136266526</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>820.230080101654</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>820.230080101654</v>
       </c>
       <c r="V8" t="n">
-        <v>2184.059060190805</v>
+        <v>553.8524235344762</v>
       </c>
       <c r="W8" t="n">
-        <v>2184.059060190805</v>
+        <v>553.8524235344762</v>
       </c>
       <c r="X8" t="n">
-        <v>2184.059060190805</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="Y8" t="n">
-        <v>1793.919728214993</v>
+        <v>287.4747669672984</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>186.9981886775788</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>186.9981886775788</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>186.9981886775788</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>186.9981886775788</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>186.9981886775788</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>49.60150222664603</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>49.60150222664603</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>46.96951069551319</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>121.6535314649673</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>268.3979551252638</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>529.4746963267548</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>909.4672107560895</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>858.046441637462</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>629.9105956742754</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>394.7584874425327</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>394.7584874425327</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>394.7584874425327</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>186.9981886775788</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>60.62868407629304</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>60.62868407629304</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>60.62868407629304</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>60.62868407629304</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>60.62868407629304</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>60.62868407629304</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>848.0684854165356</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>848.0684854165356</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>581.6908288493578</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>327.0063406434709</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>60.62868407629304</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>60.62868407629304</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>60.62868407629304</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1285.591601078694</v>
+        <v>2016.438433460087</v>
       </c>
       <c r="C11" t="n">
-        <v>1267.635416552713</v>
+        <v>1647.475916519675</v>
       </c>
       <c r="D11" t="n">
-        <v>909.3697179459625</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>523.5814653477182</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
         <v>523.5814653477182</v>
@@ -5038,13 +5038,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810551</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5053,40 +5053,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V11" t="n">
-        <v>2788.565186649821</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W11" t="n">
-        <v>2435.796531379707</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X11" t="n">
-        <v>2062.330773118627</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="Y11" t="n">
-        <v>1672.191441142816</v>
+        <v>2403.038273524209</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>452.6479724696235</v>
+        <v>846.3749096777597</v>
       </c>
       <c r="C13" t="n">
-        <v>452.6479724696235</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D13" t="n">
-        <v>361.3151575124868</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E13" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F13" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
         <v>111.6347488791189</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610488</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046014</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676408</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696235</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y13" t="n">
-        <v>452.6479724696235</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1250.836169983545</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C14" t="n">
-        <v>1250.836169983545</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="D14" t="n">
-        <v>892.5704713767946</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
         <v>892.5704713767946</v>
@@ -5278,19 +5278,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410102</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V14" t="n">
-        <v>2630.721789066531</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W14" t="n">
-        <v>2277.953133796417</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X14" t="n">
-        <v>2027.575342023478</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y14" t="n">
-        <v>1637.436010047667</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>848.0708164780106</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="C16" t="n">
-        <v>679.1346335501037</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="D16" t="n">
-        <v>529.0179941377679</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="E16" t="n">
         <v>381.1049005553748</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088492</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V16" t="n">
-        <v>1672.610059882605</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W16" t="n">
-        <v>1478.501411349798</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X16" t="n">
-        <v>1250.51186045178</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.71928130825</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1619.798686923957</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="C17" t="n">
-        <v>1250.836169983545</v>
+        <v>1196.477747641189</v>
       </c>
       <c r="D17" t="n">
-        <v>892.5704713767946</v>
+        <v>1196.477747641189</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>1196.477747641189</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>785.4918428515819</v>
       </c>
       <c r="G17" t="n">
-        <v>66.5121164321834</v>
+        <v>370.4193926965783</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5539,28 +5539,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V17" t="n">
-        <v>2630.721789066531</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W17" t="n">
-        <v>2277.953133796416</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X17" t="n">
-        <v>2009.938018899768</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y17" t="n">
-        <v>1619.798686923957</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>775.6427484063371</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C19" t="n">
-        <v>606.7065654784302</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D19" t="n">
-        <v>456.5899260660944</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E19" t="n">
-        <v>308.6768324837013</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>161.786884985791</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5703,22 +5703,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U19" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V19" t="n">
-        <v>1513.842048484845</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W19" t="n">
-        <v>1224.424878447885</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X19" t="n">
-        <v>996.4353275498672</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y19" t="n">
-        <v>775.6427484063371</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1853.982617026597</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="C20" t="n">
-        <v>1485.020100086185</v>
+        <v>916.6290841382831</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F20" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912089</v>
@@ -5761,7 +5761,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5776,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410101</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.721789066531</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W20" t="n">
-        <v>2630.721789066531</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X20" t="n">
-        <v>2630.721789066531</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y20" t="n">
-        <v>2240.582457090719</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
         <v>176.0213023927779</v>
@@ -5828,7 +5828,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5837,7 +5837,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>644.3338566427974</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C22" t="n">
-        <v>475.3976737148905</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D22" t="n">
-        <v>475.3976737148905</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
         <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783662</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V22" t="n">
-        <v>1161.740577577775</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W22" t="n">
-        <v>872.3234075408147</v>
+        <v>938.656009866025</v>
       </c>
       <c r="X22" t="n">
-        <v>644.3338566427974</v>
+        <v>710.6664589680076</v>
       </c>
       <c r="Y22" t="n">
-        <v>644.3338566427974</v>
+        <v>710.6664589680076</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1619.798686923957</v>
+        <v>1749.723851760224</v>
       </c>
       <c r="C23" t="n">
-        <v>1250.836169983545</v>
+        <v>1380.761334819812</v>
       </c>
       <c r="D23" t="n">
-        <v>892.5704713767946</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -5998,43 +5998,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883006</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539436</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.243802269321</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X23" t="n">
-        <v>2014.778044008242</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y23" t="n">
-        <v>2006.398526988078</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
         <v>2407.411984886741</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>452.6479724696239</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C25" t="n">
-        <v>452.6479724696239</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D25" t="n">
-        <v>302.5313330572882</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E25" t="n">
-        <v>302.5313330572882</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>155.6413855593778</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U25" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V25" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W25" t="n">
-        <v>680.6375233676413</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X25" t="n">
-        <v>452.6479724696239</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.6479724696239</v>
+        <v>562.7533653856145</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1311.909787855437</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C26" t="n">
-        <v>942.9472709150252</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D26" t="n">
-        <v>584.6815723082748</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E26" t="n">
-        <v>198.8933197100305</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F26" t="n">
-        <v>198.8933197100305</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6268,10 +6268,10 @@
         <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y26" t="n">
-        <v>1698.509627919559</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>820.4128495803448</v>
+        <v>751.7882586869142</v>
       </c>
       <c r="C28" t="n">
-        <v>651.4766666524379</v>
+        <v>582.8520757590073</v>
       </c>
       <c r="D28" t="n">
-        <v>501.3600272401021</v>
+        <v>432.7354363466716</v>
       </c>
       <c r="E28" t="n">
-        <v>353.446933657709</v>
+        <v>284.8223427642785</v>
       </c>
       <c r="F28" t="n">
-        <v>206.5569861597986</v>
+        <v>137.9323952663681</v>
       </c>
       <c r="G28" t="n">
         <v>66.5121164321834</v>
@@ -6423,13 +6423,13 @@
         <v>1450.843444452132</v>
       </c>
       <c r="W28" t="n">
-        <v>1450.843444452132</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X28" t="n">
-        <v>1222.853893554115</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y28" t="n">
-        <v>1002.061314410584</v>
+        <v>933.436723517154</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1698.509627919559</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C29" t="n">
-        <v>1329.547110979147</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D29" t="n">
-        <v>971.2814123723965</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E29" t="n">
-        <v>585.4931597741522</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
         <v>406.0926155839475</v>
@@ -6463,10 +6463,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6505,10 +6505,10 @@
         <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y29" t="n">
-        <v>1698.509627919559</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="30">
@@ -6542,13 +6542,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>530.2513404403937</v>
+        <v>718.3439163053883</v>
       </c>
       <c r="C31" t="n">
-        <v>361.3151575124868</v>
+        <v>549.4077333774815</v>
       </c>
       <c r="D31" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
         <v>66.5121164321834</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>1224.739181610489</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V31" t="n">
-        <v>970.0546934046018</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W31" t="n">
-        <v>680.6375233676413</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X31" t="n">
-        <v>680.6375233676413</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y31" t="n">
-        <v>530.2513404403937</v>
+        <v>899.9923811356281</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1278.358723975039</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="C32" t="n">
-        <v>1278.358723975039</v>
+        <v>1935.846242975425</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
         <v>3266.588755052368</v>
@@ -6727,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>3072.075344883006</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V32" t="n">
-        <v>2781.332309546166</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W32" t="n">
-        <v>2428.563654276052</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X32" t="n">
-        <v>2055.097896014972</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y32" t="n">
-        <v>1664.958564039161</v>
+        <v>2304.808759915837</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I33" t="n">
         <v>66.5121164321834</v>
@@ -6782,10 +6782,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>848.0708164780106</v>
+        <v>680.6375233676399</v>
       </c>
       <c r="C34" t="n">
-        <v>679.1346335501037</v>
+        <v>511.701340439733</v>
       </c>
       <c r="D34" t="n">
-        <v>529.0179941377679</v>
+        <v>361.5847010273973</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>213.6716074450042</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574644</v>
+        <v>66.7816599470938</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.7816599470938</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.7816599470938</v>
       </c>
       <c r="I34" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L34" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N34" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P34" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U34" t="n">
-        <v>1478.501411349798</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V34" t="n">
-        <v>1478.501411349798</v>
+        <v>970.0546934046005</v>
       </c>
       <c r="W34" t="n">
-        <v>1478.501411349798</v>
+        <v>680.6375233676399</v>
       </c>
       <c r="X34" t="n">
-        <v>1250.51186045178</v>
+        <v>680.6375233676399</v>
       </c>
       <c r="Y34" t="n">
-        <v>1029.71928130825</v>
+        <v>680.6375233676399</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1888.09808975843</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="C35" t="n">
-        <v>1519.135572818019</v>
+        <v>1132.251444816072</v>
       </c>
       <c r="D35" t="n">
-        <v>1160.869874211268</v>
+        <v>773.9857462093212</v>
       </c>
       <c r="E35" t="n">
-        <v>775.0816216130238</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F35" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3212.059949162401</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2958.529472436237</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V35" t="n">
-        <v>2627.466585092666</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>2274.697929822552</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X35" t="n">
-        <v>2274.697929822552</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y35" t="n">
-        <v>2274.697929822552</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>234.2149530574645</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C37" t="n">
-        <v>234.2149530574645</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D37" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E37" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7140,7 +7140,7 @@
         <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>234.2149530574645</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1888.09808975843</v>
+        <v>2065.110222835251</v>
       </c>
       <c r="C38" t="n">
-        <v>1519.135572818019</v>
+        <v>1696.147705894839</v>
       </c>
       <c r="D38" t="n">
-        <v>1160.869874211268</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>775.0816216130238</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7186,16 +7186,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
         <v>3325.60582160917</v>
@@ -7207,19 +7207,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V38" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W38" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X38" t="n">
-        <v>2664.837261798364</v>
+        <v>2841.849394875185</v>
       </c>
       <c r="Y38" t="n">
-        <v>2274.697929822552</v>
+        <v>2451.710062899373</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
         <v>2407.411984886741</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>241.8928126690276</v>
+        <v>382.3382468580006</v>
       </c>
       <c r="C40" t="n">
-        <v>241.8928126690276</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="D40" t="n">
-        <v>241.8928126690276</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E40" t="n">
-        <v>241.8928126690276</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7353,31 +7353,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1846.947403133935</v>
       </c>
       <c r="T40" t="n">
-        <v>1705.527932658019</v>
+        <v>1625.180787703462</v>
       </c>
       <c r="U40" t="n">
-        <v>1416.425065783662</v>
+        <v>1336.077920829105</v>
       </c>
       <c r="V40" t="n">
-        <v>1161.740577577775</v>
+        <v>1081.393432623218</v>
       </c>
       <c r="W40" t="n">
-        <v>872.3234075408147</v>
+        <v>791.9762625862577</v>
       </c>
       <c r="X40" t="n">
-        <v>644.3338566427974</v>
+        <v>563.9867116882403</v>
       </c>
       <c r="Y40" t="n">
-        <v>423.5412774992673</v>
+        <v>563.9867116882403</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1519.109083729354</v>
+        <v>1867.116698829639</v>
       </c>
       <c r="C41" t="n">
-        <v>1150.146566788942</v>
+        <v>1498.154181889227</v>
       </c>
       <c r="D41" t="n">
-        <v>791.8808681821918</v>
+        <v>1139.888483282476</v>
       </c>
       <c r="E41" t="n">
-        <v>406.0926155839475</v>
+        <v>754.1002306842322</v>
       </c>
       <c r="F41" t="n">
-        <v>406.0926155839475</v>
+        <v>343.1143258946246</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7429,10 +7429,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
         <v>3325.60582160917</v>
@@ -7441,22 +7441,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V41" t="n">
-        <v>2678.274518176916</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W41" t="n">
-        <v>2669.314014030367</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="X41" t="n">
-        <v>2295.848255769287</v>
+        <v>2257.25603080545</v>
       </c>
       <c r="Y41" t="n">
-        <v>1905.708923793476</v>
+        <v>1867.116698829639</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7520,22 +7520,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C43" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T43" t="n">
-        <v>1875.372983430875</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U43" t="n">
-        <v>1586.270116556519</v>
+        <v>1416.425065783661</v>
       </c>
       <c r="V43" t="n">
-        <v>1586.270116556519</v>
+        <v>1161.740577577774</v>
       </c>
       <c r="W43" t="n">
-        <v>1296.852946519558</v>
+        <v>872.3234075408134</v>
       </c>
       <c r="X43" t="n">
-        <v>1068.863395621541</v>
+        <v>872.3234075408134</v>
       </c>
       <c r="Y43" t="n">
-        <v>848.0708164780106</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1208.812782134349</v>
+        <v>1422.200456328341</v>
       </c>
       <c r="C44" t="n">
-        <v>839.8502651939375</v>
+        <v>1053.23793938793</v>
       </c>
       <c r="D44" t="n">
-        <v>481.5845665871869</v>
+        <v>694.9722407811794</v>
       </c>
       <c r="E44" t="n">
-        <v>481.5845665871869</v>
+        <v>309.1839881829351</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>309.1839881829351</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923659</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.266054653545</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X44" t="n">
-        <v>1808.800296392465</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y44" t="n">
-        <v>1418.660964416653</v>
+        <v>1808.800296392463</v>
       </c>
     </row>
     <row r="45">
@@ -7724,16 +7724,16 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.1023745137405</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C46" t="n">
-        <v>560.1023745137405</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D46" t="n">
         <v>529.0179941377679</v>
@@ -7794,19 +7794,19 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
         <v>315.6219318279954</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U46" t="n">
-        <v>1513.842048484845</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V46" t="n">
-        <v>1259.157560278958</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W46" t="n">
-        <v>969.7403902419976</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X46" t="n">
-        <v>741.7508393439803</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y46" t="n">
-        <v>741.7508393439803</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8139,19 +8139,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>74.60115408961737</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>15.73946458758471</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,16 +8376,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>82.97369176944299</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>28.18495819153215</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>71.18793141915893</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>217.5613044873861</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917676</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>149.6511845669353</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.83417464571</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22637,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>142.8915126811095</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>57.14828643304915</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,28 +22749,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>36.19408632378023</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117128</v>
+        <v>98.73949432713042</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>64.61205615750814</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>220.1407781844802</v>
+        <v>60.53711821294272</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>133.2063523221644</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>219.3504585753918</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>225.5722460637384</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>342.8442447313719</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897339</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>26.17372043046393</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>11.5089333319978</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>7.884010625681611</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09636055867139248</v>
+        <v>38.33818124377129</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>64.16939599459997</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>144.489753495659</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22953,19 +22953,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>19.25466862917659</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>36.19408632378045</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>98.99741117027136</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>196.7025699974793</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695015</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>212.5247896405703</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>132.7782232971189</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862882</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>15.70245609324532</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -23162,10 +23162,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>113.245901396446</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>22.54475050117139</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>201.1568951984</v>
+        <v>22.80911833508492</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23260,16 +23260,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>347.4962690902864</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>30.83395077441867</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>92.67648855686313</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>58.19598621064709</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983812</v>
@@ -23466,13 +23466,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>215.7838235834855</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>121.8570868232601</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>75.60632145146297</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>94.35543628911128</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>35.31649065849547</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>104.3961369307876</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>71.70378739095673</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.0986533615246</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23974,13 +23974,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>150.0882792706478</v>
+        <v>305.9193393173595</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>53.08411721864861</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>124.821505027278</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>294.8813866572834</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>377.9422168060921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>77.78783182310575</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>137.8199670074837</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>333.9024222471535</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>279.8643344083848</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.38138722868916</v>
+        <v>95.31973221318538</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24685,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>229.2695069934088</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>302.0150290037638</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>128.429631170896</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,25 +24888,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.70233225411974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>39.95509197054719</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>39.91665348666334</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.08557233007683</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>251.2246074419157</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>92.45320224634889</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>200.6953182054931</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>152.1724499918689</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.335964134056923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>277.2566436803266</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>75.75316021284874</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>137.8199670074838</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>110.2253518264306</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>137.0855382856366</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>340.3700696123292</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>168.1466002651277</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>208.3807601228291</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>174.9841412039995</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>170.6765726202092</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>117.8419364459995</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>104.4219494721156</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>532640.5770708444</v>
+        <v>469902.7171790038</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>728034.344196957</v>
+        <v>469902.7171790036</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>797085.5717721587</v>
+        <v>532640.5770708444</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878081.8178860205</v>
+        <v>878081.8178860204</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878081.8178860203</v>
+        <v>878081.8178860204</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>878081.8178860205</v>
+        <v>878081.8178860206</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878081.8178860205</v>
+        <v>878081.8178860204</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>878081.8178860204</v>
+        <v>878081.8178860205</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>878081.8178860205</v>
+        <v>878081.8178860204</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878081.8178860206</v>
+        <v>878081.8178860205</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>878081.8178860205</v>
+        <v>878081.8178860204</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>171419.5356187815</v>
+      </c>
+      <c r="C2" t="n">
+        <v>171419.5356187815</v>
+      </c>
+      <c r="D2" t="n">
         <v>193768.2521372568</v>
-      </c>
-      <c r="C2" t="n">
-        <v>265569.8802231801</v>
-      </c>
-      <c r="D2" t="n">
-        <v>290673.0489695933</v>
       </c>
       <c r="E2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="F2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="G2" t="n">
         <v>323947.2440223745</v>
@@ -26349,13 +26349,13 @@
         <v>323947.2440223745</v>
       </c>
       <c r="N2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="O2" t="n">
         <v>323947.2440223743</v>
       </c>
-      <c r="O2" t="n">
-        <v>323947.2440223742</v>
-      </c>
       <c r="P2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223744</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>308174.1417414033</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>99404.18284596092</v>
+        <v>79834.34398878374</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171905</v>
+        <v>551695.2512473335</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>71651.52831447152</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>24921.83922824956</v>
+        <v>19282.57122194985</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341491</v>
+        <v>141470.0145401779</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12754.4749088174</v>
+        <v>9939.2083519468</v>
       </c>
       <c r="C4" t="n">
-        <v>15634.16823746789</v>
+        <v>9939.208351946796</v>
       </c>
       <c r="D4" t="n">
-        <v>17379.72927547097</v>
+        <v>12754.47490881742</v>
       </c>
       <c r="E4" t="n">
         <v>9160.459137079182</v>
       </c>
       <c r="F4" t="n">
-        <v>9160.459137079168</v>
+        <v>9160.459137079182</v>
       </c>
       <c r="G4" t="n">
         <v>9160.459137079168</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
@@ -26505,13 +26505,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="O5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="P5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="P5" t="n">
-        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-572449.7217537714</v>
+        <v>-488012.7720080809</v>
       </c>
       <c r="C6" t="n">
-        <v>-149986.1937411609</v>
+        <v>103344.1305127649</v>
       </c>
       <c r="D6" t="n">
-        <v>75723.90168642504</v>
+        <v>37098.8585167143</v>
       </c>
       <c r="E6" t="n">
-        <v>54931.27520865043</v>
+        <v>-311562.4258532376</v>
       </c>
       <c r="F6" t="n">
-        <v>237004.255025841</v>
+        <v>240132.8253940959</v>
       </c>
       <c r="G6" t="n">
-        <v>237004.2550258408</v>
+        <v>240132.8253940957</v>
       </c>
       <c r="H6" t="n">
-        <v>237004.2550258409</v>
+        <v>240132.8253940958</v>
       </c>
       <c r="I6" t="n">
-        <v>237004.2550258409</v>
+        <v>240132.8253940959</v>
       </c>
       <c r="J6" t="n">
-        <v>168005.1006067268</v>
+        <v>191067.8806655513</v>
       </c>
       <c r="K6" t="n">
-        <v>165352.7267113694</v>
+        <v>240132.8253940958</v>
       </c>
       <c r="L6" t="n">
-        <v>212082.4157975913</v>
+        <v>220850.254172146</v>
       </c>
       <c r="M6" t="n">
-        <v>189451.9892324261</v>
+        <v>98662.81085391805</v>
       </c>
       <c r="N6" t="n">
-        <v>237004.2550258408</v>
+        <v>240132.825394096</v>
       </c>
       <c r="O6" t="n">
-        <v>237004.2550258407</v>
+        <v>240132.8253940959</v>
       </c>
       <c r="P6" t="n">
-        <v>237004.255025841</v>
+        <v>240132.8253940955</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>614.055013769478</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
@@ -26822,16 +26822,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>239.6556507682058</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>80.35422757985498</v>
+        <v>65.58507285657379</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>475.7216868238201</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,16 +26992,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-5.939882568352612e-14</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>278.401076724657</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>98.46987537387565</v>
+        <v>76.18829283518645</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022537</v>
+        <v>567.6875754007863</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>278.401076724657</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387565</v>
+        <v>76.18829283518645</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>567.6875754007864</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>278.401076724657</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387565</v>
+        <v>76.18829283518645</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022537</v>
+        <v>567.6875754007863</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I5" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J5" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840426</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190903</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U5" t="n">
-        <v>0.274560213720662</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095115</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475632</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053859</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017475</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153089</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32496,7 +32496,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
         <v>99.83230779806951</v>
@@ -33262,7 +33262,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H33" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987485</v>
@@ -33526,10 +33526,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q34" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987485</v>
@@ -34237,10 +34237,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>75.94151139701789</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140554</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O5" t="n">
-        <v>348.1556286974036</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109602</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>172.7419126813483</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1432842295773</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818056</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O6" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P6" t="n">
-        <v>232.4146318208176</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.48193198348409</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>156.5898900231598</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>256.4684548971897</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M7" t="n">
-        <v>280.9040898900911</v>
+        <v>99.08507489005443</v>
       </c>
       <c r="N7" t="n">
-        <v>279.7143300212425</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="O7" t="n">
-        <v>242.1833805735793</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P7" t="n">
-        <v>183.4714556748827</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.74826709349593</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>26.13373767211384</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q33" t="n">
         <v>159.233896612727</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q42" t="n">
         <v>159.233896612727</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
